--- a/src/models/data/checkup_package.xlsx
+++ b/src/models/data/checkup_package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C8B8BD-BBA9-423C-9E04-C6B8BD7561EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE639EB-E608-4B6B-8624-A9DFBB861B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>c4667908-8c66-4712-a5a0-fe2c39fc666e</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Gói khám gồm phí đặt lịch, phí tư vấn sàng lọc đầu vào và khám bệnh</t>
+  </si>
+  <si>
+    <t>677f6840-6e4c-4a0c-82a5-89c7a1db3c1d</t>
+  </si>
+  <si>
+    <t>edd2a0fa-a690-4dc5-97e1-e5487b3907a1</t>
+  </si>
+  <si>
+    <t>13253e19-f53e-432c-b3ba-3468e8d109fd</t>
+  </si>
+  <si>
+    <t>Gói khám gồm phí đặt lịch, phí khám online trong vòng 1 giờ.</t>
+  </si>
+  <si>
+    <t>Gói khám gồm phí đặt lịch, phí khám online trong vòng 2 giờ.</t>
+  </si>
+  <si>
+    <t>Basic1h</t>
+  </si>
+  <si>
+    <t>Basic2h</t>
+  </si>
+  <si>
+    <t>5e51b358-2ac1-4f46-94c1-d0bc9e1dec07</t>
   </si>
 </sst>
 </file>
@@ -436,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +477,7 @@
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
     <col min="5" max="5" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,44 +517,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -538,10 +568,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -555,10 +585,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -572,10 +602,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -589,10 +619,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -606,44 +636,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -657,19 +687,70 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>150000</v>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>650000</v>
       </c>
     </row>
   </sheetData>
